--- a/biology/Médecine/Ligament_palmaire_du_carpe/Ligament_palmaire_du_carpe.xlsx
+++ b/biology/Médecine/Ligament_palmaire_du_carpe/Ligament_palmaire_du_carpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament palmaire du carpe est la partie épaissie du fascia antébrachial à l'avant du poignet.
 Le ligament carpien palmaire est une structure différente de celle du rétinaculum des fléchisseurs de la main, mais les deux sont souvent confondus. Il est superficiel et proximal au rétinaculum des fléchisseurs.
